--- a/scripts/DK64 Randomizer Bingo Goals.xlsx
+++ b/scripts/DK64 Randomizer Bingo Goals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Orange Throwing</t>
   </si>
   <si>
-    <t>Diving</t>
-  </si>
-  <si>
-    <t>Vine Swinging</t>
+    <t>Save the Apple Reward</t>
+  </si>
+  <si>
+    <t>Castle Lanky Tower</t>
   </si>
   <si>
     <t>Barrel Throwing</t>
@@ -181,7 +181,7 @@
     <t>Endgame</t>
   </si>
   <si>
-    <t>Disable the Blastomatic</t>
+    <t>1 Company Coin</t>
   </si>
   <si>
     <t>Complete Dk Arcade Round 2</t>
@@ -476,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -487,6 +487,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -515,6 +520,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,31 +1190,27 @@
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2">
-        <v>1.0</v>
+      <c r="C30" s="5">
+        <v>14.0</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>30.0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="2">
-        <v>1.0</v>
+      <c r="C31" s="5">
+        <v>14.0</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -1389,15 +1396,13 @@
       <c r="A44" s="2">
         <v>43.0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C44" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45">

--- a/scripts/DK64 Randomizer Bingo Goals.xlsx
+++ b/scripts/DK64 Randomizer Bingo Goals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -151,7 +151,7 @@
     <t>Key 1</t>
   </si>
   <si>
-    <t>Key</t>
+    <t>Keys</t>
   </si>
   <si>
     <t>Key 2</t>
@@ -250,13 +250,10 @@
     <t>CBs</t>
   </si>
   <si>
-    <t>Defeat a Boss</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Defeat 2 Bosses</t>
+    <t>Have 2 Keys</t>
+  </si>
+  <si>
+    <t>Have 3 Keys</t>
   </si>
   <si>
     <t>Defeat Mad Jack</t>
@@ -268,7 +265,7 @@
     <t>Defeat Armydillo 2</t>
   </si>
   <si>
-    <t>Defeat All Bosses</t>
+    <t>All Keys</t>
   </si>
   <si>
     <t>Complete Diddy Lower Cabin</t>
@@ -397,7 +394,7 @@
     <t>Complete All 3 Mincecarts</t>
   </si>
   <si>
-    <t>Vin Diesel</t>
+    <t>Kong Family</t>
   </si>
   <si>
     <t>Pound the X</t>
@@ -457,7 +454,7 @@
     <t>20 Blueprints</t>
   </si>
   <si>
-    <t>Collect The End of Helm</t>
+    <t>Disable the Blastomatic</t>
   </si>
   <si>
     <t>Complete All Lighthouse Area Checks</t>
@@ -470,13 +467,43 @@
   </si>
   <si>
     <t>Complete Both Tiny Car Races</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in Crystal Caves</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in Fungi Forest</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in Gloomy Galleon</t>
+  </si>
+  <si>
+    <t>Have 4 Keys</t>
+  </si>
+  <si>
+    <t>Have 5 Keys</t>
+  </si>
+  <si>
+    <t>70 Golden Bananas</t>
+  </si>
+  <si>
+    <t>80 Golden Bananas</t>
+  </si>
+  <si>
+    <t>DK Isles Summit Barrel</t>
+  </si>
+  <si>
+    <t>All Kasplats in Angry Aztec</t>
+  </si>
+  <si>
+    <t>All Kasplats in Crystal Caves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -493,6 +520,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -522,10 +554,13 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,8 +973,8 @@
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
+      <c r="C13" s="4">
+        <v>2.0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
@@ -1013,8 +1048,8 @@
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
+      <c r="C18" s="4">
+        <v>2.0</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
@@ -1190,10 +1225,10 @@
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>14.0</v>
       </c>
       <c r="D30" s="3"/>
@@ -1203,10 +1238,10 @@
       <c r="A31" s="2">
         <v>30.0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>14.0</v>
       </c>
       <c r="D31" s="3"/>
@@ -1219,8 +1254,8 @@
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2">
-        <v>1.0</v>
+      <c r="C32" s="4">
+        <v>2.0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="1" t="s">
@@ -1264,11 +1299,11 @@
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2">
-        <v>5.0</v>
+      <c r="C35" s="4">
+        <v>9.0</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1279,11 +1314,11 @@
       <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>9.0</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1298,7 +1333,7 @@
         <v>11.0</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1309,11 +1344,11 @@
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="2">
-        <v>11.0</v>
+      <c r="C38" s="4">
+        <v>9.0</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1324,11 +1359,11 @@
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="2">
-        <v>13.0</v>
+      <c r="C39" s="4">
+        <v>9.0</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1339,11 +1374,11 @@
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="2">
-        <v>15.0</v>
+      <c r="C40" s="4">
+        <v>9.0</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1354,11 +1389,11 @@
       <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="2">
-        <v>15.0</v>
+      <c r="C41" s="4">
+        <v>9.0</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1369,11 +1404,11 @@
       <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="2">
-        <v>15.0</v>
+      <c r="C42" s="4">
+        <v>26.0</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1396,10 +1431,10 @@
       <c r="A44" s="2">
         <v>43.0</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>12.0</v>
       </c>
       <c r="D44" s="1"/>
@@ -1645,8 +1680,8 @@
       <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="2">
-        <v>20.0</v>
+      <c r="C62" s="4">
+        <v>16.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>78</v>
@@ -1657,14 +1692,14 @@
       <c r="A63" s="2">
         <v>62.0</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C63" s="2">
         <v>4.0</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>80</v>
+      <c r="D63" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -1672,14 +1707,14 @@
       <c r="A64" s="2">
         <v>63.0</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>81</v>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C64" s="2">
         <v>10.0</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>80</v>
+      <c r="D64" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E64" s="3"/>
     </row>
@@ -1688,14 +1723,14 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2">
         <v>11.0</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="1" t="s">
-        <v>80</v>
+      <c r="E65" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -1703,14 +1738,14 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2">
         <v>18.0</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="1" t="s">
-        <v>80</v>
+      <c r="E66" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67">
@@ -1718,28 +1753,28 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2">
         <v>11.0</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="1" t="s">
-        <v>80</v>
+      <c r="E67" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
         <v>67.0</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>85</v>
+      <c r="B68" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C68" s="2">
         <v>25.0</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>80</v>
+      <c r="D68" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -1748,14 +1783,14 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2">
         <v>8.0</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1798,7 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2">
         <v>17.0</v>
@@ -1776,7 +1811,7 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2">
         <v>3.0</v>
@@ -1789,7 +1824,7 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2">
         <v>5.0</v>
@@ -1802,7 +1837,7 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2">
         <v>5.0</v>
@@ -1815,7 +1850,7 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2">
         <v>8.0</v>
@@ -1828,7 +1863,7 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2">
         <v>5.0</v>
@@ -1841,7 +1876,7 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2">
         <v>5.0</v>
@@ -1854,7 +1889,7 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2">
         <v>5.0</v>
@@ -1867,7 +1902,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2">
         <v>2.0</v>
@@ -1880,7 +1915,7 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2">
         <v>2.0</v>
@@ -1893,7 +1928,7 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2">
         <v>5.0</v>
@@ -1906,7 +1941,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2">
         <v>6.0</v>
@@ -1919,7 +1954,7 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2">
         <v>2.0</v>
@@ -1932,7 +1967,7 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2">
         <v>4.0</v>
@@ -1945,7 +1980,7 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2">
         <v>3.0</v>
@@ -1958,7 +1993,7 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2">
         <v>3.0</v>
@@ -1971,7 +2006,7 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2">
         <v>6.0</v>
@@ -1984,7 +2019,7 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2">
         <v>3.0</v>
@@ -1997,7 +2032,7 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2">
         <v>3.0</v>
@@ -2010,7 +2045,7 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2">
         <v>7.0</v>
@@ -2023,7 +2058,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2">
         <v>4.0</v>
@@ -2036,7 +2071,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2">
         <v>9.0</v>
@@ -2049,7 +2084,7 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2">
         <v>7.0</v>
@@ -2062,7 +2097,7 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2">
         <v>7.0</v>
@@ -2075,10 +2110,10 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="2">
-        <v>18.0</v>
+        <v>111</v>
+      </c>
+      <c r="C94" s="4">
+        <v>13.0</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2088,7 +2123,7 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2">
         <v>5.0</v>
@@ -2101,7 +2136,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2">
         <v>14.0</v>
@@ -2114,10 +2149,10 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="2">
-        <v>16.0</v>
+        <v>114</v>
+      </c>
+      <c r="C97" s="4">
+        <v>12.0</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2127,7 +2162,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2">
         <v>9.0</v>
@@ -2140,10 +2175,10 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="2">
-        <v>17.0</v>
+        <v>116</v>
+      </c>
+      <c r="C99" s="4">
+        <v>13.0</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2153,7 +2188,7 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2">
         <v>12.0</v>
@@ -2166,7 +2201,7 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2">
         <v>4.0</v>
@@ -2179,7 +2214,7 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2">
         <v>14.0</v>
@@ -2192,7 +2227,7 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2">
         <v>7.0</v>
@@ -2205,7 +2240,7 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2">
         <v>4.0</v>
@@ -2218,10 +2253,10 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="2">
-        <v>16.0</v>
+        <v>122</v>
+      </c>
+      <c r="C105" s="4">
+        <v>13.0</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2231,7 +2266,7 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2">
         <v>15.0</v>
@@ -2244,7 +2279,7 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" s="2">
         <v>13.0</v>
@@ -2259,7 +2294,7 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2">
         <v>10.0</v>
@@ -2274,7 +2309,7 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2">
         <v>12.0</v>
@@ -2286,8 +2321,8 @@
       <c r="A110" s="2">
         <v>109.0</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>128</v>
+      <c r="B110" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C110" s="2">
         <v>3.0</v>
@@ -2300,7 +2335,7 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2">
         <v>9.0</v>
@@ -2313,13 +2348,13 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2">
         <v>19.0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -2328,13 +2363,13 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2">
         <v>20.0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E113" s="3"/>
     </row>
@@ -2343,13 +2378,13 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2">
         <v>17.0</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E114" s="3"/>
     </row>
@@ -2358,13 +2393,13 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2">
         <v>17.0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E115" s="3"/>
     </row>
@@ -2373,13 +2408,13 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2">
         <v>21.0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E116" s="3"/>
     </row>
@@ -2388,13 +2423,13 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C117" s="2">
         <v>23.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E117" s="3"/>
     </row>
@@ -2403,7 +2438,7 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2">
         <v>14.0</v>
@@ -2416,7 +2451,7 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2">
         <v>17.0</v>
@@ -2429,7 +2464,7 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2">
         <v>22.0</v>
@@ -2444,7 +2479,7 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2">
         <v>15.0</v>
@@ -2457,13 +2492,13 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C122" s="2">
         <v>9.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E122" s="3"/>
     </row>
@@ -2472,13 +2507,13 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" s="2">
         <v>18.0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E123" s="3"/>
     </row>
@@ -2487,13 +2522,13 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C124" s="2">
         <v>11.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E124" s="3"/>
     </row>
@@ -2502,13 +2537,13 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2">
         <v>21.0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E125" s="3"/>
     </row>
@@ -2516,10 +2551,10 @@
       <c r="A126" s="2">
         <v>125.0</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C126" s="2">
+      <c r="B126" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" s="4">
         <v>25.0</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -2532,7 +2567,7 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C127" s="2">
         <v>24.0</v>
@@ -2545,10 +2580,10 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C128" s="2">
-        <v>24.0</v>
+        <v>149</v>
+      </c>
+      <c r="C128" s="4">
+        <v>19.0</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>78</v>
@@ -2560,7 +2595,7 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2">
         <v>23.0</v>
@@ -2573,13 +2608,144 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C130" s="2">
         <v>11.0</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6">
+        <v>132.0</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C137" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6">
+        <v>137.0</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="6">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6">
+        <v>138.0</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" s="6">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" s="6">
+        <v>16.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/scripts/DK64 Randomizer Bingo Goals.xlsx
+++ b/scripts/DK64 Randomizer Bingo Goals.xlsx
@@ -34,100 +34,331 @@
     <t>DK Move</t>
   </si>
   <si>
+    <t>Peanut Popguns</t>
+  </si>
+  <si>
+    <t>Diddy Move</t>
+  </si>
+  <si>
+    <t>Guitar Gazump</t>
+  </si>
+  <si>
+    <t>Rocketbarrel Boost</t>
+  </si>
+  <si>
+    <t>Grape Shooter</t>
+  </si>
+  <si>
+    <t>Lanky Move</t>
+  </si>
+  <si>
+    <t>Feather Bow</t>
+  </si>
+  <si>
+    <t>Tiny Move</t>
+  </si>
+  <si>
+    <t>Mini Monkey</t>
+  </si>
+  <si>
+    <t>Pineapple Launcher</t>
+  </si>
+  <si>
+    <t>Chunky Move</t>
+  </si>
+  <si>
+    <t>Triangle Trample</t>
+  </si>
+  <si>
+    <t>Primate Punch</t>
+  </si>
+  <si>
+    <t>Super Simian Slam</t>
+  </si>
+  <si>
+    <t>Family Move</t>
+  </si>
+  <si>
     <t>Bongo Blast</t>
   </si>
   <si>
+    <t>Trombone Tremor</t>
+  </si>
+  <si>
+    <t>Saxophone Slam</t>
+  </si>
+  <si>
+    <t>Barrel Throwing</t>
+  </si>
+  <si>
+    <t>Aztec Lanky Medal</t>
+  </si>
+  <si>
+    <t>Aztec Tiny Medal</t>
+  </si>
+  <si>
+    <t>Factory Diddy Medal</t>
+  </si>
+  <si>
+    <t>Pony Tail Twirl</t>
+  </si>
+  <si>
+    <t>Monkeyport</t>
+  </si>
+  <si>
+    <t>Orange Throwing</t>
+  </si>
+  <si>
+    <t>30 Golden Bananas</t>
+  </si>
+  <si>
+    <t>Golden Bananas</t>
+  </si>
+  <si>
+    <t>Japes DK Medal</t>
+  </si>
+  <si>
+    <t>Factory Tiny Medal</t>
+  </si>
+  <si>
+    <t>Factory Chunky Medal</t>
+  </si>
+  <si>
+    <t>Galleon Diddy Medal</t>
+  </si>
+  <si>
+    <t>Galleon Lanky Medal</t>
+  </si>
+  <si>
+    <t>Obtain All 5 Kongs</t>
+  </si>
+  <si>
+    <t>Baboon Blast</t>
+  </si>
+  <si>
+    <t>Orangstand Sprint</t>
+  </si>
+  <si>
+    <t>Hunky Chunky</t>
+  </si>
+  <si>
+    <t>Gorilla Gone</t>
+  </si>
+  <si>
+    <t>Have 2 Keys</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Factory Lanky Medal</t>
+  </si>
+  <si>
+    <t>Galleon Chunky Medal</t>
+  </si>
+  <si>
+    <t>Castle DK Medal</t>
+  </si>
+  <si>
+    <t>Castle Tiny Medal</t>
+  </si>
+  <si>
+    <t>Chimpy Charge</t>
+  </si>
+  <si>
+    <t>Japes Diddy Medal</t>
+  </si>
+  <si>
+    <t>Japes Lanky Medal</t>
+  </si>
+  <si>
+    <t>Aztec Chunky Medal</t>
+  </si>
+  <si>
+    <t>Forest Chunky Medal</t>
+  </si>
+  <si>
     <t>Gorilla Grab</t>
   </si>
   <si>
     <t>Strong Kong</t>
   </si>
   <si>
-    <t>Baboon Blast</t>
-  </si>
-  <si>
-    <t>Peanut Popguns</t>
-  </si>
-  <si>
-    <t>Diddy Move</t>
-  </si>
-  <si>
-    <t>Guitar Gazump</t>
-  </si>
-  <si>
-    <t>Chimpy Charge</t>
-  </si>
-  <si>
-    <t>Rocketbarrel Boost</t>
-  </si>
-  <si>
     <t>Simian Spring</t>
   </si>
   <si>
-    <t>Grape Shooter</t>
-  </si>
-  <si>
-    <t>Lanky Move</t>
-  </si>
-  <si>
-    <t>Trombone Tremor</t>
-  </si>
-  <si>
     <t>Orangstand</t>
   </si>
   <si>
-    <t>Orangstand Sprint</t>
-  </si>
-  <si>
     <t>Baboon Balloon</t>
   </si>
   <si>
-    <t>Feather Bow</t>
-  </si>
-  <si>
-    <t>Tiny Move</t>
-  </si>
-  <si>
-    <t>Saxophone Slam</t>
-  </si>
-  <si>
-    <t>Pony Tail Twirl</t>
-  </si>
-  <si>
-    <t>Mini Monkey</t>
-  </si>
-  <si>
-    <t>Monkeyport</t>
-  </si>
-  <si>
-    <t>Pineapple Launcher</t>
-  </si>
-  <si>
-    <t>Chunky Move</t>
-  </si>
-  <si>
-    <t>Triangle Trample</t>
-  </si>
-  <si>
-    <t>Primate Punch</t>
-  </si>
-  <si>
-    <t>Hunky Chunky</t>
-  </si>
-  <si>
-    <t>Gorilla Gone</t>
-  </si>
-  <si>
     <t>Homing Ammo</t>
   </si>
   <si>
-    <t>Family Move</t>
-  </si>
-  <si>
     <t>Sniper Sight</t>
   </si>
   <si>
-    <t>Orange Throwing</t>
+    <t>Japes Chunky Medal</t>
+  </si>
+  <si>
+    <t>Aztec DK Medal</t>
+  </si>
+  <si>
+    <t>Aztec Diddy Medal</t>
+  </si>
+  <si>
+    <t>Caves Lanky Beetle Race Reward</t>
+  </si>
+  <si>
+    <t>Factory DK Medal</t>
+  </si>
+  <si>
+    <t>Galleon DK Medal</t>
+  </si>
+  <si>
+    <t>The Bean</t>
+  </si>
+  <si>
+    <t>Mermaid's Reward</t>
+  </si>
+  <si>
+    <t>40 Golden Bananas</t>
+  </si>
+  <si>
+    <t>Galleon Tiny Medal</t>
+  </si>
+  <si>
+    <t>Forest Diddy Medal</t>
+  </si>
+  <si>
+    <t>Forest Lanky Medal</t>
+  </si>
+  <si>
+    <t>Castle Lanky Medal</t>
+  </si>
+  <si>
+    <t>Super Duper Simian Slam</t>
+  </si>
+  <si>
+    <t>Multiple Moves</t>
+  </si>
+  <si>
+    <t>Race the Owl Reward</t>
+  </si>
+  <si>
+    <t>Complete Diddy's Lower Cabin</t>
+  </si>
+  <si>
+    <t>Cabins</t>
+  </si>
+  <si>
+    <t>Japes Tiny Medal</t>
+  </si>
+  <si>
+    <t>Key 1</t>
+  </si>
+  <si>
+    <t>Key 2</t>
+  </si>
+  <si>
+    <t>Key 4</t>
+  </si>
+  <si>
+    <t>Key 5</t>
+  </si>
+  <si>
+    <t>Key 6</t>
+  </si>
+  <si>
+    <t>Key 7</t>
+  </si>
+  <si>
+    <t>Forest DK Medal</t>
+  </si>
+  <si>
+    <t>Caves Lanky Medal</t>
+  </si>
+  <si>
+    <t>Pound the X Reward</t>
+  </si>
+  <si>
+    <t>2 Crowns</t>
+  </si>
+  <si>
+    <t>Crowns</t>
+  </si>
+  <si>
+    <t>DK Isles Summit Barrel</t>
+  </si>
+  <si>
+    <t>Defeat the Spider Boss</t>
+  </si>
+  <si>
+    <t>Forest Mills</t>
+  </si>
+  <si>
+    <t>3 Pearls</t>
+  </si>
+  <si>
+    <t>50 Golden Bananas</t>
+  </si>
+  <si>
+    <t>Have 3 Keys</t>
+  </si>
+  <si>
+    <t>Collect 1 Move for Each Kong</t>
+  </si>
+  <si>
+    <t>Key 3</t>
+  </si>
+  <si>
+    <t>Mechfish Reward</t>
+  </si>
+  <si>
+    <t>Defeat Mad Jack</t>
+  </si>
+  <si>
+    <t>Defeat Armydillo 2</t>
+  </si>
+  <si>
+    <t>10 Blueprints</t>
+  </si>
+  <si>
+    <t>Blueprints</t>
+  </si>
+  <si>
+    <t>Complete Both Tiny Car Races</t>
+  </si>
+  <si>
+    <t>1 Company Coin</t>
+  </si>
+  <si>
+    <t>Race the Rabbit</t>
+  </si>
+  <si>
+    <t>Caves Diddy Medal</t>
+  </si>
+  <si>
+    <t>Caves Chunky Medal</t>
+  </si>
+  <si>
+    <t>Complete All 3 Minecarts</t>
+  </si>
+  <si>
+    <t>Aztec Beetle Race Reward</t>
+  </si>
+  <si>
+    <t>Forest Tiny Medal</t>
+  </si>
+  <si>
+    <t>Caves Tiny Medal</t>
+  </si>
+  <si>
+    <t>Castle Chunky Medal</t>
+  </si>
+  <si>
+    <t>Collect All Moves for A Kong</t>
   </si>
   <si>
     <t>Save the Apple Reward</t>
@@ -136,367 +367,136 @@
     <t>Castle Lanky Tower</t>
   </si>
   <si>
-    <t>Barrel Throwing</t>
-  </si>
-  <si>
-    <t>Super Simian Slam</t>
-  </si>
-  <si>
-    <t>Super Duper Simian Slam</t>
-  </si>
-  <si>
-    <t>Multiple Moves</t>
-  </si>
-  <si>
-    <t>Key 1</t>
-  </si>
-  <si>
-    <t>Keys</t>
-  </si>
-  <si>
-    <t>Key 2</t>
-  </si>
-  <si>
-    <t>Key 3</t>
-  </si>
-  <si>
-    <t>Key 4</t>
-  </si>
-  <si>
-    <t>Key 5</t>
-  </si>
-  <si>
-    <t>Key 6</t>
-  </si>
-  <si>
-    <t>Key 7</t>
+    <t>Defeat the Toy Monster</t>
+  </si>
+  <si>
+    <t>R+D</t>
+  </si>
+  <si>
+    <t>Caves DK Medal</t>
+  </si>
+  <si>
+    <t>Castle Diddy Medal</t>
+  </si>
+  <si>
+    <t>Complete All Production Checks</t>
+  </si>
+  <si>
+    <t>60 Golden Bananas</t>
+  </si>
+  <si>
+    <t>Banana Fairy's Reward</t>
+  </si>
+  <si>
+    <t>Complete All Tiny Temple Checks</t>
+  </si>
+  <si>
+    <t>300 Coloured Bananas in 1 Level</t>
+  </si>
+  <si>
+    <t>CBs</t>
+  </si>
+  <si>
+    <t>Have 4 Keys</t>
+  </si>
+  <si>
+    <t>All Kasplats in Crystal Caves</t>
+  </si>
+  <si>
+    <t>Crystal Caves Dirt Patch</t>
+  </si>
+  <si>
+    <t>Complete All 5 Door Ship Checks</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Complete All 5 Door Temple Checks</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Complete All Crypt Checks</t>
+  </si>
+  <si>
+    <t>Defeat Dogadon 2</t>
+  </si>
+  <si>
+    <t>6 Crowns</t>
+  </si>
+  <si>
+    <t>All Kasplats in Angry Aztec</t>
+  </si>
+  <si>
+    <t>Beanstalk's Reward</t>
+  </si>
+  <si>
+    <t>Forest DK Mushroom Cannons</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in 1 Level</t>
+  </si>
+  <si>
+    <t>Forest Lobby Battle Crown</t>
+  </si>
+  <si>
+    <t>70 Golden Bananas</t>
+  </si>
+  <si>
+    <t>Complete All 5 Door Igloo Checks</t>
+  </si>
+  <si>
+    <t>20 Blueprints</t>
+  </si>
+  <si>
+    <t>Have 5 Keys</t>
+  </si>
+  <si>
+    <t>Complete All R+D Checks</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in Fungi Forest</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in Gloomy Galleon</t>
+  </si>
+  <si>
+    <t>Complete All 5 Door Cabin Checks</t>
+  </si>
+  <si>
+    <t>Complete All Llama Temple Checks</t>
+  </si>
+  <si>
+    <t>Complete All Lighthouse Area Checks</t>
+  </si>
+  <si>
+    <t>400 Coloured Bananas in Crystal Caves</t>
+  </si>
+  <si>
+    <t>80 Golden Bananas</t>
+  </si>
+  <si>
+    <t>Defeat K.Rool</t>
+  </si>
+  <si>
+    <t>Endgame</t>
+  </si>
+  <si>
+    <t>All Keys</t>
+  </si>
+  <si>
+    <t>Disable the Blast-o-Matic</t>
   </si>
   <si>
     <t>Key 8</t>
   </si>
   <si>
-    <t>Defeat K.Rool</t>
-  </si>
-  <si>
-    <t>Endgame</t>
-  </si>
-  <si>
-    <t>1 Company Coin</t>
-  </si>
-  <si>
     <t>Complete Dk Arcade Round 2</t>
   </si>
   <si>
     <t>Jetpac</t>
-  </si>
-  <si>
-    <t>Defeat the Toymonster</t>
-  </si>
-  <si>
-    <t>R+D</t>
-  </si>
-  <si>
-    <t>Defeat Spiderboss</t>
-  </si>
-  <si>
-    <t>Forest Mills</t>
-  </si>
-  <si>
-    <t>Beanstalk's Reward</t>
-  </si>
-  <si>
-    <t>The Bean</t>
-  </si>
-  <si>
-    <t>3 Pearls</t>
-  </si>
-  <si>
-    <t>Mermaid's Reward</t>
-  </si>
-  <si>
-    <t>Mechfish Agenda</t>
-  </si>
-  <si>
-    <t>Race the Owl Reward</t>
-  </si>
-  <si>
-    <t>Caves Lanky Beetle Race Reward</t>
-  </si>
-  <si>
-    <t>Aztec Beetle Race Reward</t>
-  </si>
-  <si>
-    <t>Race the Rabbit</t>
-  </si>
-  <si>
-    <t>30 Golden Bananas</t>
-  </si>
-  <si>
-    <t>Golden Bananas</t>
-  </si>
-  <si>
-    <t>40 Golden Bananas</t>
-  </si>
-  <si>
-    <t>50 Golden Bananas</t>
-  </si>
-  <si>
-    <t>60 Golden Bananas</t>
-  </si>
-  <si>
-    <t>300 Coloured Bananas in 1 Level</t>
-  </si>
-  <si>
-    <t>CBs</t>
-  </si>
-  <si>
-    <t>Have 2 Keys</t>
-  </si>
-  <si>
-    <t>Have 3 Keys</t>
-  </si>
-  <si>
-    <t>Defeat Mad Jack</t>
-  </si>
-  <si>
-    <t>Defeat Dogodon 2</t>
-  </si>
-  <si>
-    <t>Defeat Armydillo 2</t>
-  </si>
-  <si>
-    <t>All Keys</t>
-  </si>
-  <si>
-    <t>Complete Diddy Lower Cabin</t>
-  </si>
-  <si>
-    <t>Cabins</t>
-  </si>
-  <si>
-    <t>Kosha Dirt</t>
-  </si>
-  <si>
-    <t>Japes DK Medal</t>
-  </si>
-  <si>
-    <t>Japes Diddy Medal</t>
-  </si>
-  <si>
-    <t>Japes Lanky Medal</t>
-  </si>
-  <si>
-    <t>Japes Tiny Medal</t>
-  </si>
-  <si>
-    <t>Japes Chunky Medal</t>
-  </si>
-  <si>
-    <t>Aztec DK Medal</t>
-  </si>
-  <si>
-    <t>Aztec Diddy Medal</t>
-  </si>
-  <si>
-    <t>Aztec Lanky Medal</t>
-  </si>
-  <si>
-    <t>Aztec Tiny Medal</t>
-  </si>
-  <si>
-    <t>Aztec Chunky Medal</t>
-  </si>
-  <si>
-    <t>Factory DK Medal</t>
-  </si>
-  <si>
-    <t>Factory Diddy Medal</t>
-  </si>
-  <si>
-    <t>Factory Lanky Medal</t>
-  </si>
-  <si>
-    <t>Factory Tiny Medal</t>
-  </si>
-  <si>
-    <t>Factory Chunky Medal</t>
-  </si>
-  <si>
-    <t>Galleon DK Medal</t>
-  </si>
-  <si>
-    <t>Galleon Diddy Medal</t>
-  </si>
-  <si>
-    <t>Galleon Lanky Medal</t>
-  </si>
-  <si>
-    <t>Galleon Tiny Medal</t>
-  </si>
-  <si>
-    <t>Galleon Chunky Medal</t>
-  </si>
-  <si>
-    <t>Forest DK Medal</t>
-  </si>
-  <si>
-    <t>Forest Diddy Medal</t>
-  </si>
-  <si>
-    <t>Forest Lanky Medal</t>
-  </si>
-  <si>
-    <t>Forest Tiny Medal</t>
-  </si>
-  <si>
-    <t>Forest Chunky Medal</t>
-  </si>
-  <si>
-    <t>Caves DK Medal</t>
-  </si>
-  <si>
-    <t>Caves Diddy Medal</t>
-  </si>
-  <si>
-    <t>Caves Lanky Medal</t>
-  </si>
-  <si>
-    <t>Caves Tiny Medal</t>
-  </si>
-  <si>
-    <t>Caves Chunky Medal</t>
-  </si>
-  <si>
-    <t>Castle DK Medal</t>
-  </si>
-  <si>
-    <t>Castle Diddy Medal</t>
-  </si>
-  <si>
-    <t>Castle Lanky Medal</t>
-  </si>
-  <si>
-    <t>Castle Tiny Medal</t>
-  </si>
-  <si>
-    <t>Castle Chunky Medal</t>
-  </si>
-  <si>
-    <t>Banana Fairy's Reward</t>
-  </si>
-  <si>
-    <t>Collect All Moves for A Kong</t>
-  </si>
-  <si>
-    <t>Collect 1 Move for Each Kong</t>
-  </si>
-  <si>
-    <t>Complete All 3 Mincecarts</t>
-  </si>
-  <si>
-    <t>Kong Family</t>
-  </si>
-  <si>
-    <t>Pound the X</t>
-  </si>
-  <si>
-    <t>Check of Legends</t>
-  </si>
-  <si>
-    <t>Guns</t>
-  </si>
-  <si>
-    <t>Forest Lobby Check of Legends</t>
-  </si>
-  <si>
-    <t>Complete All 5 Door Ship</t>
-  </si>
-  <si>
-    <t>Instruments</t>
-  </si>
-  <si>
-    <t>Complete All 5 Door Temple</t>
-  </si>
-  <si>
-    <t>Complete All 5 Door Igloo</t>
-  </si>
-  <si>
-    <t>Complete All 5 Door Cabin</t>
-  </si>
-  <si>
-    <t>Clear All Production Checks</t>
-  </si>
-  <si>
-    <t>Complete All Crypt Checks</t>
-  </si>
-  <si>
-    <t>Complete All R+D Checks</t>
-  </si>
-  <si>
-    <t>Complete All Tiny Temple Checks</t>
-  </si>
-  <si>
-    <t>2 Crowns</t>
-  </si>
-  <si>
-    <t>Crowns</t>
-  </si>
-  <si>
-    <t>6 Crowns</t>
-  </si>
-  <si>
-    <t>10 Blueprints</t>
-  </si>
-  <si>
-    <t>Blueprints</t>
-  </si>
-  <si>
-    <t>20 Blueprints</t>
-  </si>
-  <si>
-    <t>Disable the Blastomatic</t>
-  </si>
-  <si>
-    <t>Complete All Lighthouse Area Checks</t>
-  </si>
-  <si>
-    <t>400 Coloured Bananas in 1 Level</t>
-  </si>
-  <si>
-    <t>Complete All Llama Temple Checks</t>
-  </si>
-  <si>
-    <t>Complete Both Tiny Car Races</t>
-  </si>
-  <si>
-    <t>400 Coloured Bananas in Crystal Caves</t>
-  </si>
-  <si>
-    <t>400 Coloured Bananas in Fungi Forest</t>
-  </si>
-  <si>
-    <t>400 Coloured Bananas in Gloomy Galleon</t>
-  </si>
-  <si>
-    <t>Have 4 Keys</t>
-  </si>
-  <si>
-    <t>Have 5 Keys</t>
-  </si>
-  <si>
-    <t>70 Golden Bananas</t>
-  </si>
-  <si>
-    <t>80 Golden Bananas</t>
-  </si>
-  <si>
-    <t>DK Isles Summit Barrel</t>
-  </si>
-  <si>
-    <t>All Kasplats in Angry Aztec</t>
-  </si>
-  <si>
-    <t>All Kasplats in Crystal Caves</t>
   </si>
 </sst>
 </file>
@@ -818,272 +818,266 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>32.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
         <v>2.0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6.0</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.0</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4.0</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.0</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6.0</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>77.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>78.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
         <v>2.0</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>81.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1091,495 +1085,481 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
         <v>3.0</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>22.0</v>
+        <v>57.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>23.0</v>
+        <v>70.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>24.0</v>
+        <v>83.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>25.0</v>
+        <v>84.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>26.0</v>
+        <v>86.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>27.0</v>
+        <v>87.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>109.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>3.0</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="4">
-        <v>14.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.0</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4">
         <v>14.0</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.0</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2.0</v>
+        <v>42</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>62.0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>34.0</v>
+        <v>82.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4">
-        <v>9.0</v>
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.0</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>35.0</v>
+        <v>89.0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="4">
-        <v>9.0</v>
+      <c r="C36" s="2">
+        <v>4.0</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>36.0</v>
+        <v>100.0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="2">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>37.0</v>
+        <v>103.0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="4">
-        <v>9.0</v>
+      <c r="C38" s="2">
+        <v>4.0</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="4">
-        <v>9.0</v>
+      <c r="C39" s="2">
+        <v>5.0</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="5" t="s">
-        <v>46</v>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>39.0</v>
+        <v>71.0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="4">
-        <v>9.0</v>
+      <c r="C40" s="2">
+        <v>5.0</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="4">
-        <v>9.0</v>
+      <c r="C41" s="2">
+        <v>5.0</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41.0</v>
+        <v>79.0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4">
-        <v>26.0</v>
+      <c r="C42" s="2">
+        <v>5.0</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>42.0</v>
+        <v>94.0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>3.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
+        <v>5.0</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44.0</v>
+        <v>4.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="2">
-        <v>15.0</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5.0</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>45.0</v>
+        <v>10.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="2">
-        <v>13.0</v>
+        <v>57</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5.0</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="2">
-        <v>14.0</v>
+        <v>58</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5.0</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>47.0</v>
+        <v>15.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2">
-        <v>10.0</v>
+        <v>59</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5.0</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="2">
-        <v>19.0</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="4">
+        <v>5.0</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>49.0</v>
+        <v>27.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="2">
-        <v>7.0</v>
+        <v>61</v>
+      </c>
+      <c r="C50" s="4">
+        <v>5.0</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>50.0</v>
+        <v>74.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="2">
-        <v>10.0</v>
+        <v>62</v>
+      </c>
+      <c r="C51" s="4">
+        <v>6.0</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>51.0</v>
+        <v>75.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7.0</v>
+        <v>63</v>
+      </c>
+      <c r="C52" s="4">
+        <v>6.0</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>52.0</v>
+        <v>76.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="2">
-        <v>11.0</v>
+        <v>64</v>
+      </c>
+      <c r="C53" s="4">
+        <v>6.0</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>54.0</v>
+        <v>80.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2">
         <v>6.0</v>
@@ -1589,43 +1569,41 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>55.0</v>
+        <v>85.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59">
@@ -1633,637 +1611,653 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2">
         <v>7.0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>59.0</v>
+        <v>88.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>60.0</v>
+        <v>91.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>61.0</v>
+        <v>92.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>102.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C63" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>63.0</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>80</v>
+        <v>33.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C64" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="3"/>
+        <v>8.0</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>64.0</v>
+        <v>53.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>68.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C66" s="2">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="5" t="s">
-        <v>46</v>
+      <c r="E66" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>66.0</v>
+        <v>73.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>67.0</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>34.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="2">
-        <v>8.0</v>
+        <v>82</v>
+      </c>
+      <c r="C69" s="4">
+        <v>9.0</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="1" t="s">
-        <v>86</v>
+      <c r="E69" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>69.0</v>
+        <v>37.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="2">
-        <v>17.0</v>
+        <v>83</v>
+      </c>
+      <c r="C70" s="4">
+        <v>9.0</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>70.0</v>
+        <v>38.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="2">
-        <v>3.0</v>
+        <v>84</v>
+      </c>
+      <c r="C71" s="4">
+        <v>9.0</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>71.0</v>
+        <v>39.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="2">
-        <v>5.0</v>
+        <v>85</v>
+      </c>
+      <c r="C72" s="4">
+        <v>9.0</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>72.0</v>
+        <v>40.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="2">
-        <v>5.0</v>
+        <v>86</v>
+      </c>
+      <c r="C73" s="4">
+        <v>9.0</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>73.0</v>
+        <v>90.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>74.0</v>
+        <v>97.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>110.0</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C76" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>76.0</v>
+        <v>121.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>9.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="2">
-        <v>77.0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="A78" s="6">
+        <v>137.0</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="6">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>78.0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>96</v>
+        <v>47.0</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C79" s="2">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>79.0</v>
+        <v>50.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>80.0</v>
+        <v>59.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D81" s="3"/>
+        <v>10.0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>81.0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>63.0</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C82" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D82" s="3"/>
+        <v>10.0</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>82.0</v>
+        <v>107.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D83" s="3"/>
+        <v>10.0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>83.0</v>
+        <v>36.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="E84" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>84.0</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>102</v>
+        <v>52.0</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C85" s="2">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>85.0</v>
+        <v>64.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="E86" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>86.0</v>
+        <v>66.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="E87" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>87.0</v>
+        <v>123.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D88" s="3"/>
+        <v>11.0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>88.0</v>
+        <v>129.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>89.0</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>43.0</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>90.0</v>
+        <v>56.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>91.0</v>
+        <v>96.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="2">
-        <v>7.0</v>
+        <v>108</v>
+      </c>
+      <c r="C92" s="4">
+        <v>12.0</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>92.0</v>
+        <v>99.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>93.0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="4">
-        <v>13.0</v>
+        <v>108.0</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12.0</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>94.0</v>
+        <v>55.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C96" s="2">
-        <v>14.0</v>
+        <v>112</v>
+      </c>
+      <c r="C96" s="4">
+        <v>13.0</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>96.0</v>
+        <v>98.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97" s="4">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>97.0</v>
+        <v>104.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="2">
-        <v>9.0</v>
+        <v>114</v>
+      </c>
+      <c r="C98" s="4">
+        <v>13.0</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>98.0</v>
+        <v>106.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="4">
+        <v>115</v>
+      </c>
+      <c r="C99" s="2">
         <v>13.0</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>99.0</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="2">
-        <v>12.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="4">
+        <v>14.0</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="2">
-        <v>4.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="4">
+        <v>14.0</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>119</v>
+        <v>46.0</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C102" s="2">
         <v>14.0</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="E102" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>102.0</v>
+        <v>95.0</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C103" s="2">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>103.0</v>
+        <v>101.0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C104" s="2">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="1" t="s">
+        <v>117.0</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="4">
-        <v>13.0</v>
+      <c r="C105" s="2">
+        <v>14.0</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>105.0</v>
+        <v>60.0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>123</v>
@@ -2271,264 +2265,258 @@
       <c r="C106" s="2">
         <v>15.0</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C107" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>107.0</v>
+        <v>120.0</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C108" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>108.0</v>
+        <v>61.0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C109" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D109" s="3"/>
+      <c r="C109" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="2">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="A110" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="2">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="A111" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="6">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>129</v>
+        <v>69.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C112" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>17.0</v>
+      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="1" t="s">
+        <v>113.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C113" s="2">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>132</v>
+        <v>114.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C114" s="2">
         <v>17.0</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>114.0</v>
+        <v>118.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2">
         <v>17.0</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>135</v>
+        <v>65.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C116" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" s="3"/>
+        <v>18.0</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>116.0</v>
+        <v>122.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="2">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C118" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="A118" s="6">
+        <v>138.0</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="6">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>118.0</v>
+        <v>48.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>139</v>
+        <v>111.0</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C120" s="2">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>120.0</v>
+        <v>127.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D121" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="C121" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>141</v>
+        <v>112.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C122" s="2">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="2">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="A123" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C123" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E123" s="3"/>
+      <c r="C123" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="1" t="s">
+        <v>115.0</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C124" s="2">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E124" s="3"/>
     </row>
@@ -2537,215 +2525,227 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C125" s="2">
         <v>21.0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C126" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="3"/>
+      <c r="A126" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>126.0</v>
+        <v>119.0</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C127" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6">
+        <v>132.0</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C129" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="C129" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="1" t="s">
+        <v>116.0</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C130" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="6">
-        <v>130.0</v>
-      </c>
-      <c r="B131" s="6" t="s">
+      <c r="C131" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>126.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C132" s="2">
         <v>24.0</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="6">
-        <v>131.0</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C132" s="6">
-        <v>22.0</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>132.0</v>
+        <v>130.0</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C133" s="6">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C134" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C134" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="6">
-        <v>134.0</v>
-      </c>
-      <c r="B135" s="6" t="s">
+      <c r="C135" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C135" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="6">
-        <v>135.0</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="A136" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C136" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="C136" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="6">
-        <v>136.0</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="A137" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C137" s="6">
-        <v>24.0</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="C137" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="6">
-        <v>137.0</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="A138" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C138" s="6">
-        <v>9.0</v>
+      <c r="C138" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="6">
-        <v>138.0</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="A139" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C139" s="6">
-        <v>18.0</v>
-      </c>
+      <c r="C139" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="6">
-        <v>139.0</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="A140" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C140" s="6">
-        <v>16.0</v>
-      </c>
+      <c r="C140" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/scripts/DK64 Randomizer Bingo Goals.xlsx
+++ b/scripts/DK64 Randomizer Bingo Goals.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="555" windowWidth="21735" windowHeight="13740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Goals" sheetId="1" r:id="rId4"/>
+    <sheet name="Goals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -580,44 +583,54 @@
     <t>Medals</t>
   </si>
   <si>
-    <t>To be added at an 8</t>
-  </si>
-  <si>
     <t>10 Medals</t>
   </si>
   <si>
-    <t>To be added at a 13</t>
-  </si>
-  <si>
     <t>15 Medals</t>
   </si>
   <si>
-    <t>To be added at a 21</t>
+    <t>Find Cranky</t>
+  </si>
+  <si>
+    <t>Shopkeepers</t>
+  </si>
+  <si>
+    <t>Find Funky</t>
+  </si>
+  <si>
+    <t>Find Candy</t>
+  </si>
+  <si>
+    <t>Find Snide</t>
+  </si>
+  <si>
+    <t>Find All Shopkeepers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -627,51 +640,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -861,27 +872,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.0"/>
-    <col customWidth="1" min="2" max="2" width="34.88"/>
-    <col customWidth="1" min="3" max="3" width="9.25"/>
-    <col customWidth="1" min="4" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="74.88"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,15 +917,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
@@ -919,285 +935,279 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="3">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>4.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C13" s="5">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>192</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C14" s="5">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>192</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="C15" s="3">
-        <v>4.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>192</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5">
-        <v>5.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
@@ -1207,1739 +1217,1762 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="14.25">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
-        <v>1.0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="14.25">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3">
-        <v>1.0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3">
-        <v>4.0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C27" s="5">
-        <v>5.0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C28" s="5">
-        <v>5.0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C29" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>86</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C30" s="5">
-        <v>14.0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="14.25">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>87</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5">
-        <v>14.0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="14.25">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C32" s="5">
-        <v>2.0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3">
-        <v>1.0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="14.25">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3">
-        <v>8.0</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C35" s="5">
-        <v>9.0</v>
+        <v>4</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5">
-        <v>9.0</v>
+        <v>4</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25">
+      <c r="A37" s="3">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5">
-        <v>9.0</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" s="6"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C39" s="5">
-        <v>9.0</v>
+        <v>4</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" s="6"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C40" s="5">
-        <v>9.0</v>
+        <v>4</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" s="6"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C41" s="5">
-        <v>9.0</v>
+        <v>4</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" s="6"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C42" s="5">
-        <v>26.0</v>
+        <v>5</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25">
       <c r="A43" s="3">
-        <v>42.0</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="14.25">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>72</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C44" s="5">
-        <v>12.0</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="14.25">
       <c r="A45" s="3">
-        <v>44.0</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C45" s="5">
-        <v>26.0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="14.25">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C46" s="5">
-        <v>26.0</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="14.25">
       <c r="A47" s="3">
-        <v>46.0</v>
+        <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C47" s="3">
-        <v>14.0</v>
+        <v>5</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C48" s="3">
-        <v>10.0</v>
+        <v>5</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25">
+      <c r="A50" s="3">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25">
+      <c r="A51" s="3">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25">
+      <c r="A52" s="3">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25">
+      <c r="A53" s="3">
+        <v>27</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25">
+      <c r="A54" s="3">
+        <v>146</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25">
+      <c r="A55" s="3">
         <v>74</v>
       </c>
-      <c r="C49" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="3">
-        <v>54.0</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C55" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="14.25">
       <c r="A56" s="3">
-        <v>55.0</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C56" s="3">
-        <v>13.0</v>
+        <v>6</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="14.25">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C57" s="3">
-        <v>12.0</v>
+        <v>6</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="14.25">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25">
+      <c r="A59" s="3">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25">
+      <c r="A60" s="3">
         <v>85</v>
       </c>
-      <c r="C58" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25">
+      <c r="A61" s="3">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="3">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="4"/>
+      <c r="F61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25">
+      <c r="A62" s="3">
+        <v>51</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="5">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="3">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25">
+      <c r="A64" s="3">
         <v>88</v>
       </c>
-      <c r="C60" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="B64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25">
+      <c r="A65" s="3">
         <v>91</v>
       </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="B65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="3">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25">
+      <c r="A66" s="3">
         <v>92</v>
       </c>
-      <c r="C63" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3">
-        <v>65.0</v>
-      </c>
       <c r="B66" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C66" s="3">
-        <v>18.0</v>
+        <v>7</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>102</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C67" s="3">
-        <v>11.0</v>
+        <v>7</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>33</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C68" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3">
+        <v>8</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1" t="s">
+      <c r="C70" s="3">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="14.25">
       <c r="A71" s="3">
-        <v>70.0</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C71" s="3">
-        <v>3.0</v>
+        <v>8</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="14.25">
       <c r="A72" s="3">
-        <v>71.0</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="C72" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73">
+        <v>8</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25">
       <c r="A73" s="3">
-        <v>72.0</v>
+        <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C73" s="3">
-        <v>5.0</v>
+        <v>9</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74">
+      <c r="E73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25">
       <c r="A74" s="3">
-        <v>73.0</v>
+        <v>35</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C74" s="3">
-        <v>8.0</v>
+        <v>9</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75">
+      <c r="E74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C75" s="5">
-        <v>6.0</v>
+        <v>9</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76">
+      <c r="E75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C76" s="5">
-        <v>6.0</v>
+        <v>9</v>
       </c>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77">
+      <c r="E76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C77" s="5">
-        <v>6.0</v>
+        <v>9</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78">
+      <c r="E77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>40</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C78" s="3">
-        <v>2.0</v>
+        <v>9</v>
       </c>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79">
+      <c r="E78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C79" s="3">
-        <v>2.0</v>
+        <v>9</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="14.25">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>97</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C80" s="3">
-        <v>5.0</v>
+        <v>9</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="14.25">
       <c r="A81" s="3">
-        <v>80.0</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C81" s="3">
-        <v>6.0</v>
+        <v>9</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="14.25">
       <c r="A82" s="3">
-        <v>81.0</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="14.25">
       <c r="A83" s="3">
-        <v>82.0</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C83" s="3">
-        <v>4.0</v>
+        <v>9</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="14.25">
       <c r="A84" s="3">
-        <v>83.0</v>
+        <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C84" s="3">
-        <v>3.0</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85">
+      <c r="E84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25">
       <c r="A85" s="3">
-        <v>84.0</v>
+        <v>50</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C85" s="3">
-        <v>3.0</v>
+        <v>10</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-    </row>
-    <row r="86">
+      <c r="F85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.25">
       <c r="A86" s="3">
-        <v>85.0</v>
+        <v>59</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="D86" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="14.25">
       <c r="A87" s="3">
-        <v>86.0</v>
+        <v>63</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C87" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D87" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E87" s="4"/>
-    </row>
-    <row r="88">
+      <c r="F87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.25">
       <c r="A88" s="3">
-        <v>87.0</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C88" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="14.25">
       <c r="A89" s="3">
-        <v>88.0</v>
+        <v>44</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C89" s="3">
-        <v>7.0</v>
+        <v>10</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="14.25">
       <c r="A90" s="3">
-        <v>89.0</v>
+        <v>36</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C90" s="3">
-        <v>4.0</v>
+        <v>11</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91">
+      <c r="E90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.25">
       <c r="A91" s="3">
-        <v>90.0</v>
+        <v>52</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C91" s="3">
-        <v>9.0</v>
+        <v>11</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="14.25">
       <c r="A92" s="3">
-        <v>91.0</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C92" s="3">
-        <v>7.0</v>
+        <v>11</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93">
+      <c r="E92" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.25">
       <c r="A93" s="3">
-        <v>92.0</v>
+        <v>66</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C93" s="3">
-        <v>7.0</v>
+        <v>11</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94">
+      <c r="E93" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.25">
       <c r="A94" s="3">
-        <v>93.0</v>
+        <v>123</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C94" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="D94" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="14.25">
       <c r="A95" s="3">
-        <v>94.0</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C95" s="3">
-        <v>5.0</v>
+        <v>11</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="14.25">
       <c r="A96" s="3">
-        <v>95.0</v>
+        <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C96" s="3">
-        <v>14.0</v>
+        <v>11</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" ht="14.25">
       <c r="A97" s="3">
-        <v>96.0</v>
+        <v>43</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C97" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" ht="14.25">
       <c r="A98" s="3">
-        <v>97.0</v>
+        <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C98" s="3">
-        <v>9.0</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" ht="14.25">
       <c r="A99" s="3">
-        <v>98.0</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C99" s="5">
-        <v>13.0</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" ht="14.25">
       <c r="A100" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C100" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" ht="14.25">
       <c r="A101" s="3">
-        <v>100.0</v>
+        <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C101" s="3">
-        <v>4.0</v>
+        <v>12</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-    </row>
-    <row r="102">
+      <c r="F101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.25">
       <c r="A102" s="3">
-        <v>101.0</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="D102" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" ht="14.25">
       <c r="A103" s="3">
-        <v>102.0</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C103" s="3">
-        <v>7.0</v>
+        <v>13</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" ht="14.25">
       <c r="A104" s="3">
-        <v>103.0</v>
+        <v>93</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C104" s="3">
-        <v>4.0</v>
+        <v>13</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" ht="14.25">
       <c r="A105" s="3">
-        <v>104.0</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C105" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" ht="14.25">
       <c r="A106" s="3">
-        <v>105.0</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C106" s="3">
-        <v>15.0</v>
+        <v>13</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="14.25">
       <c r="A107" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C107" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" ht="14.25">
       <c r="A108" s="3">
-        <v>107.0</v>
+        <v>141</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C108" s="3">
-        <v>10.0</v>
+        <v>13</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" ht="14.25">
       <c r="A109" s="3">
-        <v>108.0</v>
+        <v>29</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C109" s="3">
-        <v>12.0</v>
+        <v>14</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" ht="14.25">
       <c r="A110" s="3">
-        <v>109.0</v>
+        <v>30</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C110" s="3">
-        <v>3.0</v>
+        <v>14</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" ht="14.25">
       <c r="A111" s="3">
-        <v>110.0</v>
+        <v>46</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C111" s="3">
-        <v>9.0</v>
+        <v>14</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112">
+      <c r="E111" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.25">
       <c r="A112" s="3">
-        <v>111.0</v>
+        <v>95</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C112" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.25">
       <c r="A113" s="3">
-        <v>112.0</v>
+        <v>101</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C113" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D113" s="1"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" ht="14.25">
       <c r="A114" s="3">
-        <v>113.0</v>
+        <v>117</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C114" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" ht="14.25">
       <c r="A115" s="3">
-        <v>114.0</v>
+        <v>60</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="C115" s="3">
-        <v>17.0</v>
+        <v>15</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="E115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" ht="14.25">
       <c r="A116" s="3">
-        <v>115.0</v>
+        <v>105</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C116" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D116" s="1"/>
       <c r="E116" s="4"/>
       <c r="F116" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14.25">
       <c r="A117" s="3">
-        <v>116.0</v>
+        <v>120</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C117" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D117" s="1"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" ht="14.25">
       <c r="A118" s="3">
-        <v>117.0</v>
+        <v>61</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C118" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="E118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" ht="14.25">
       <c r="A119" s="3">
-        <v>118.0</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C119" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="D119" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E119" s="4"/>
       <c r="F119" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="14.25">
       <c r="A120" s="3">
-        <v>119.0</v>
+        <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C120" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D120" s="1"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" ht="14.25">
       <c r="A121" s="3">
-        <v>120.0</v>
+        <v>69</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="C121" s="3">
-        <v>15.0</v>
+        <v>17</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" ht="14.25">
       <c r="A122" s="3">
-        <v>121.0</v>
+        <v>113</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C122" s="3">
-        <v>9.0</v>
+        <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" ht="14.25">
+      <c r="A123" s="3">
+        <v>114</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="3">
+        <v>17</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" ht="14.25">
+      <c r="A124" s="3">
+        <v>118</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="3">
+        <v>17</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="4"/>
+      <c r="F124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="14.25">
+      <c r="A125" s="3">
+        <v>65</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="3">
+        <v>18</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="14.25">
+      <c r="A126" s="3">
+        <v>122</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="5">
+        <v>18</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="3">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C124" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="3">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C125" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" ht="14.25">
       <c r="A127" s="3">
-        <v>126.0</v>
+        <v>138</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C127" s="3">
-        <v>24.0</v>
+        <v>18</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" ht="14.25">
       <c r="A128" s="3">
-        <v>127.0</v>
+        <v>48</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" s="5">
+        <v>19</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" ht="14.25">
+      <c r="A129" s="3">
+        <v>111</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" s="3">
+        <v>19</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="14.25">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="5">
-        <v>19.0</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C130" s="3">
+        <v>19</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="3">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C129" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="3">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="D130" s="4"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" ht="12.75">
       <c r="A131" s="2">
-        <v>130.0</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C131" s="2">
-        <v>24.0</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="12.75">
       <c r="A132" s="2">
-        <v>131.0</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C132" s="2">
-        <v>22.0</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="12.75">
       <c r="A133" s="2">
-        <v>132.0</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2">
-        <v>22.0</v>
+        <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>152</v>
+      </c>
+      <c r="F133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="14.25">
       <c r="A134" s="2">
-        <v>133.0</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C134" s="2">
-        <v>16.0</v>
+        <v>21</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="14.25">
       <c r="A135" s="2">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C135" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>49</v>
@@ -2948,119 +2981,195 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" ht="12.75">
       <c r="A136" s="2">
-        <v>135.0</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C136" s="2">
-        <v>20.0</v>
+        <v>21</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75">
+      <c r="A137" s="2">
+        <v>119</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="2">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75">
+      <c r="A138" s="2">
+        <v>131</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="2">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="12.75">
+      <c r="A139" s="2">
+        <v>132</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="2">
+        <v>22</v>
+      </c>
+      <c r="D139" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75">
+      <c r="A140" s="2">
+        <v>116</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" s="2">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
+        <v>102</v>
+      </c>
+      <c r="F140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75">
+      <c r="A141" s="2">
+        <v>128</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" s="2">
+        <v>23</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" ht="12.75">
+      <c r="A142" s="2">
+        <v>126</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="2">
+        <v>24</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" ht="12.75">
+      <c r="A143" s="2">
+        <v>130</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="2">
+        <v>24</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A144">
+        <v>136</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2">
-        <v>136.0</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C137" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2">
-        <v>137.0</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2">
-        <v>138.0</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C139" s="2">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2">
-        <v>139.0</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C140" s="2">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2">
-        <v>140.0</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2">
-        <v>141.0</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C142" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2">
-        <v>142.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C143" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>193</v>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A145">
+        <v>42</v>
+      </c>
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A146">
+        <v>67</v>
+      </c>
+      <c r="B146" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+      <c r="D146" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A147">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A148">
+        <v>41</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148">
+        <v>26</v>
+      </c>
+      <c r="E148" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>